--- a/df_1/df_1_14.xlsx
+++ b/df_1/df_1_14.xlsx
@@ -662,382 +662,382 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.2338 %</t>
+          <t>0,2338</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.3058 %</t>
+          <t>0,3058</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.5352 %</t>
+          <t>0,5352</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.2643 %</t>
+          <t>0,2643</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.3325 %</t>
+          <t>0,3325</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.3961 %</t>
+          <t>0,3961</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>0.273 %</t>
+          <t>0,273</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>0.3446 %</t>
+          <t>0,3446</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>0.2656 %</t>
+          <t>0,2656</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>0.1948 %</t>
+          <t>0,1948</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>0.4669 %</t>
+          <t>0,4669</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>0.2609 %</t>
+          <t>0,2609</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>0.2604 %</t>
+          <t>0,2604</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>0.3141 %</t>
+          <t>0,3141</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>0.1505 %</t>
+          <t>0,1505</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>0.2424 %</t>
+          <t>0,2424</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>0.2758 %</t>
+          <t>0,2758</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>0.8015 %</t>
+          <t>0,8015</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>0.1703 %</t>
+          <t>0,1703</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>0.518 %</t>
+          <t>0,518</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>0.4716 %</t>
+          <t>0,4716</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>0.7285 %</t>
+          <t>0,7285</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>0.5939 %</t>
+          <t>0,5939</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>0.2896 %</t>
+          <t>0,2896</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>0.1412 %</t>
+          <t>0,1412</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>0.6545 %</t>
+          <t>0,6545</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>0.3459 %</t>
+          <t>0,3459</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>0.3522 %</t>
+          <t>0,3522</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>0.2185 %</t>
+          <t>0,2185</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>1.2488 %</t>
+          <t>1,2488</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>0.3732 %</t>
+          <t>0,3732</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>0.3688 %</t>
+          <t>0,3688</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t>0.4628 %</t>
+          <t>0,4628</t>
         </is>
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>0.543 %</t>
+          <t>0,543</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
         <is>
-          <t>0.3237 %</t>
+          <t>0,3237</t>
         </is>
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>0.431 %</t>
+          <t>0,431</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>0.2868 %</t>
+          <t>0,2868</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>0.3024 %</t>
+          <t>0,3024</t>
         </is>
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>0.2704 %</t>
+          <t>0,2704</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>0.3781 %</t>
+          <t>0,3781</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
         <is>
-          <t>0.41 %</t>
+          <t>0,41</t>
         </is>
       </c>
       <c r="AQ2" t="inlineStr">
         <is>
-          <t>0.2264 %</t>
+          <t>0,2264</t>
         </is>
       </c>
       <c r="AR2" t="inlineStr">
         <is>
-          <t>0.3433 %</t>
+          <t>0,3433</t>
         </is>
       </c>
       <c r="AS2" t="inlineStr">
         <is>
-          <t>0.1909 %</t>
+          <t>0,1909</t>
         </is>
       </c>
       <c r="AT2" t="inlineStr">
         <is>
-          <t>0.1465 %</t>
+          <t>0,1465</t>
         </is>
       </c>
       <c r="AU2" t="inlineStr">
         <is>
-          <t>0.2906 %</t>
+          <t>0,2906</t>
         </is>
       </c>
       <c r="AV2" t="inlineStr">
         <is>
-          <t>0.2842 %</t>
+          <t>0,2842</t>
         </is>
       </c>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>0.3436 %</t>
+          <t>0,3436</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>0.3265 %</t>
+          <t>0,3265</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr">
         <is>
-          <t>0.3335 %</t>
+          <t>0,3335</t>
         </is>
       </c>
       <c r="AZ2" t="inlineStr">
         <is>
-          <t>0.2823 %</t>
+          <t>0,2823</t>
         </is>
       </c>
       <c r="BA2" t="inlineStr">
         <is>
-          <t>0.2353 %</t>
+          <t>0,2353</t>
         </is>
       </c>
       <c r="BB2" t="inlineStr">
         <is>
-          <t>0.2216 %</t>
+          <t>0,2216</t>
         </is>
       </c>
       <c r="BC2" t="inlineStr">
         <is>
-          <t>0.4925 %</t>
+          <t>0,4925</t>
         </is>
       </c>
       <c r="BD2" t="inlineStr">
         <is>
-          <t>0.3781 %</t>
+          <t>0,3781</t>
         </is>
       </c>
       <c r="BE2" t="inlineStr">
         <is>
-          <t>0.2128 %</t>
+          <t>0,2128</t>
         </is>
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>0.2972 %</t>
+          <t>0,2972</t>
         </is>
       </c>
       <c r="BG2" t="inlineStr">
         <is>
-          <t>0.1088 %</t>
+          <t>0,1088</t>
         </is>
       </c>
       <c r="BH2" t="inlineStr">
         <is>
-          <t>0.1945 %</t>
+          <t>0,1945</t>
         </is>
       </c>
       <c r="BI2" t="inlineStr">
         <is>
-          <t>0.1484 %</t>
+          <t>0,1484</t>
         </is>
       </c>
       <c r="BJ2" t="inlineStr">
         <is>
-          <t>0.2999 %</t>
+          <t>0,2999</t>
         </is>
       </c>
       <c r="BK2" t="inlineStr">
         <is>
-          <t>0.1911 %</t>
+          <t>0,1911</t>
         </is>
       </c>
       <c r="BL2" t="inlineStr">
         <is>
-          <t>0.214 %</t>
+          <t>0,214</t>
         </is>
       </c>
       <c r="BM2" t="inlineStr">
         <is>
-          <t>0.2141 %</t>
+          <t>0,2141</t>
         </is>
       </c>
       <c r="BN2" t="inlineStr">
         <is>
-          <t>0.276 %</t>
+          <t>0,276</t>
         </is>
       </c>
       <c r="BO2" t="inlineStr">
         <is>
-          <t>0.3147 %</t>
+          <t>0,3147</t>
         </is>
       </c>
       <c r="BP2" t="inlineStr">
         <is>
-          <t>0.3687 %</t>
+          <t>0,3687</t>
         </is>
       </c>
       <c r="BQ2" t="inlineStr">
         <is>
-          <t>0.1295 %</t>
+          <t>0,1295</t>
         </is>
       </c>
       <c r="BR2" t="inlineStr">
         <is>
-          <t>0.5977 %</t>
+          <t>0,5977</t>
         </is>
       </c>
       <c r="BS2" t="inlineStr">
         <is>
-          <t>0.2017 %</t>
+          <t>0,2017</t>
         </is>
       </c>
       <c r="BT2" t="inlineStr">
         <is>
-          <t>0.2682 %</t>
+          <t>0,2682</t>
         </is>
       </c>
       <c r="BU2" t="inlineStr">
         <is>
-          <t>0.2582 %</t>
+          <t>0,2582</t>
         </is>
       </c>
       <c r="BV2" t="inlineStr">
         <is>
-          <t>1.2182 %</t>
+          <t>1,2182</t>
         </is>
       </c>
       <c r="BW2" t="inlineStr">
         <is>
-          <t>0.1844 %</t>
+          <t>0,1844</t>
         </is>
       </c>
       <c r="BX2" t="inlineStr">
         <is>
-          <t>0.2196 %</t>
+          <t>0,2196</t>
         </is>
       </c>
       <c r="BY2" t="inlineStr">
         <is>
-          <t>0.4377 %</t>
+          <t>0,4377</t>
         </is>
       </c>
     </row>
@@ -1049,232 +1049,232 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1.5065 %</t>
+          <t>1,5065</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.442 %</t>
+          <t>0,442</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.5261 %</t>
+          <t>0,5261</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.5677 %</t>
+          <t>0,5677</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.5742 %</t>
+          <t>0,5742</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.6072 %</t>
+          <t>0,6072</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>0.606 %</t>
+          <t>0,606</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0.3157 %</t>
+          <t>0,3157</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>0.4204 %</t>
+          <t>0,4204</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>0.2927 %</t>
+          <t>0,2927</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>0.3749 %</t>
+          <t>0,3749</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>0.2647 %</t>
+          <t>0,2647</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>0.5807 %</t>
+          <t>0,5807</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>0.3555 %</t>
+          <t>0,3555</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>0.7492 %</t>
+          <t>0,7492</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>0.2805 %</t>
+          <t>0,2805</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>0.2918 %</t>
+          <t>0,2918</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>0.3529 %</t>
+          <t>0,3529</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>0.4585 %</t>
+          <t>0,4585</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>0.4101 %</t>
+          <t>0,4101</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>0.2399 %</t>
+          <t>0,2399</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>0.5885 %</t>
+          <t>0,5885</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>0.3064 %</t>
+          <t>0,3064</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>0.2573 %</t>
+          <t>0,2573</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>0.3543 %</t>
+          <t>0,3543</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>0.2959 %</t>
+          <t>0,2959</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>0.3171 %</t>
+          <t>0,3171</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>0.1487 %</t>
+          <t>0,1487</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>0.0728 %</t>
+          <t>0,0728</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>0.2489 %</t>
+          <t>0,2489</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>0.1503 %</t>
+          <t>0,1503</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>0.0815 %</t>
+          <t>0,0815</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>0.2077 %</t>
+          <t>0,2077</t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>0.2537 %</t>
+          <t>0,2537</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
         <is>
-          <t>0.2092 %</t>
+          <t>0,2092</t>
         </is>
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>0.265 %</t>
+          <t>0,265</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>0.1035 %</t>
+          <t>0,1035</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>0.2025 %</t>
+          <t>0,2025</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>0.236 %</t>
+          <t>0,236</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>0.1643 %</t>
+          <t>0,1643</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
-          <t>0.1971 %</t>
+          <t>0,1971</t>
         </is>
       </c>
       <c r="AQ3" t="inlineStr">
         <is>
-          <t>0.2177 %</t>
+          <t>0,2177</t>
         </is>
       </c>
       <c r="AR3" t="inlineStr">
         <is>
-          <t>0.1049 %</t>
+          <t>0,1049</t>
         </is>
       </c>
       <c r="AS3" t="inlineStr">
         <is>
-          <t>0.1346 %</t>
+          <t>0,1346</t>
         </is>
       </c>
       <c r="AT3" t="inlineStr">
         <is>
-          <t>0.8057 %</t>
+          <t>0,8057</t>
         </is>
       </c>
       <c r="AU3" t="inlineStr">
         <is>
-          <t>1.0858 %</t>
+          <t>1,0858</t>
         </is>
       </c>
     </row>
@@ -1286,227 +1286,227 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1.6896 %</t>
+          <t>1,6896</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.8926 %</t>
+          <t>0,8926</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.7178 %</t>
+          <t>0,7178</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.4292 %</t>
+          <t>0,4292</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.2438 %</t>
+          <t>0,2438</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.184 %</t>
+          <t>0,184</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>0.103 %</t>
+          <t>0,103</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0.1194 %</t>
+          <t>0,1194</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>0.0431 %</t>
+          <t>0,0431</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>0.0312 %</t>
+          <t>0,0312</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>0.0299 %</t>
+          <t>0,0299</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>0.0263 %</t>
+          <t>0,0263</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>0.0312 %</t>
+          <t>0,0312</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>0.0248 %</t>
+          <t>0,0248</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>0.0213 %</t>
+          <t>0,0213</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>0.0164 %</t>
+          <t>0,0164</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>0.0239 %</t>
+          <t>0,0239</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>0.0665 %</t>
+          <t>0,0665</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>0.1283 %</t>
+          <t>0,1283</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>0.1263 %</t>
+          <t>0,1263</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>0.2638 %</t>
+          <t>0,2638</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>0.4673 %</t>
+          <t>0,4673</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>0.5573 %</t>
+          <t>0,5573</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>0.3839 %</t>
+          <t>0,3839</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>0.189 %</t>
+          <t>0,189</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>0.1931 %</t>
+          <t>0,1931</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>0.2276 %</t>
+          <t>0,2276</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>0.2528 %</t>
+          <t>0,2528</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>0.3134 %</t>
+          <t>0,3134</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>0.3718 %</t>
+          <t>0,3718</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>0.3931 %</t>
+          <t>0,3931</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>0.4638 %</t>
+          <t>0,4638</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>0.485 %</t>
+          <t>0,485</t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>0.5451 %</t>
+          <t>0,5451</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
         <is>
-          <t>0.6185 %</t>
+          <t>0,6185</t>
         </is>
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>0.5725 %</t>
+          <t>0,5725</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>0.6289 %</t>
+          <t>0,6289</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>0.6506 %</t>
+          <t>0,6506</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>0.6714 %</t>
+          <t>0,6714</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>1.0017 %</t>
+          <t>1,0017</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
         <is>
-          <t>1.1523 %</t>
+          <t>1,1523</t>
         </is>
       </c>
       <c r="AQ4" t="inlineStr">
         <is>
-          <t>0.8474 %</t>
+          <t>0,8474</t>
         </is>
       </c>
       <c r="AR4" t="inlineStr">
         <is>
-          <t>1.5064 %</t>
+          <t>1,5064</t>
         </is>
       </c>
       <c r="AS4" t="inlineStr">
         <is>
-          <t>1.7882 %</t>
+          <t>1,7882</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr">
         <is>
-          <t>1.5442 %</t>
+          <t>1,5442</t>
         </is>
       </c>
     </row>
